--- a/load-data/script/BarniKNX.xlsx
+++ b/load-data/script/BarniKNX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3079a5a9a119bbd6/BarniHome/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3079a5a9a119bbd6/dockerapps/barni/load-data/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{90D98A33-156D-4F98-B6E0-7BD6D06530F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605A1C78-292F-40C8-BF10-B9A002CA0C83}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{90D98A33-156D-4F98-B6E0-7BD6D06530F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712D2AD7-B712-42C1-864F-BDE7A8211CEA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E641F112-E48A-446C-91E5-B9D6CEB5640F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E641F112-E48A-446C-91E5-B9D6CEB5640F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="1120">
   <si>
     <t>ObjectID</t>
   </si>
@@ -2025,9 +2025,6 @@
     <t>3/0/6</t>
   </si>
   <si>
-    <t>Luce Bagno Ospiti</t>
-  </si>
-  <si>
     <t>Ventola Bagno Ospiti</t>
   </si>
   <si>
@@ -2073,9 +2070,6 @@
     <t>31/4/0</t>
   </si>
   <si>
-    <t>Luce Specchio Bagno Ospiti</t>
-  </si>
-  <si>
     <t>30/0/5</t>
   </si>
   <si>
@@ -3397,6 +3391,12 @@
   </si>
   <si>
     <t>Presa Condizionatori</t>
+  </si>
+  <si>
+    <t>Powder Room</t>
+  </si>
+  <si>
+    <t>Specchio Powder Room</t>
   </si>
 </sst>
 </file>
@@ -3483,14 +3483,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3528,7 +3524,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3634,7 +3630,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3776,7 +3772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3788,41 +3784,41 @@
   <dimension ref="A1:X331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="2"/>
+    <col min="21" max="21" width="21.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>459</v>
       </c>
@@ -3940,7 +3936,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>471</v>
       </c>
@@ -3969,7 +3965,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>449</v>
       </c>
@@ -4001,7 +3997,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>456</v>
       </c>
@@ -4034,7 +4030,7 @@
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>361</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>308</v>
       </c>
@@ -4107,7 +4103,7 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>314</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>313</v>
       </c>
@@ -4171,7 +4167,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>309</v>
       </c>
@@ -4203,7 +4199,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>334</v>
       </c>
@@ -4235,7 +4231,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>333</v>
       </c>
@@ -4267,7 +4263,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>331</v>
       </c>
@@ -4299,7 +4295,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>357</v>
       </c>
@@ -4331,7 +4327,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>359</v>
       </c>
@@ -4363,7 +4359,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>340</v>
       </c>
@@ -4395,7 +4391,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>342</v>
       </c>
@@ -4427,7 +4423,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>344</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>366</v>
       </c>
@@ -4491,7 +4487,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>365</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>345</v>
       </c>
@@ -4555,7 +4551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>355</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>312</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>311</v>
       </c>
@@ -4642,7 +4638,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>318</v>
       </c>
@@ -4671,7 +4667,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>337</v>
       </c>
@@ -4700,7 +4696,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>338</v>
       </c>
@@ -4729,15 +4725,15 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
@@ -4752,13 +4748,13 @@
         <v>38</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>288</v>
       </c>
@@ -4791,7 +4787,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>298</v>
       </c>
@@ -4824,7 +4820,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>295</v>
       </c>
@@ -4857,7 +4853,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>293</v>
       </c>
@@ -4890,7 +4886,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>270</v>
       </c>
@@ -4925,7 +4921,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>280</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>281</v>
       </c>
@@ -4995,7 +4991,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>282</v>
       </c>
@@ -5030,7 +5026,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>283</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>70</v>
@@ -5056,16 +5052,16 @@
         <v>65</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
@@ -5100,9 +5096,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>612</v>
@@ -5114,10 +5110,10 @@
         <v>643</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>88</v>
@@ -5126,16 +5122,16 @@
         <v>65</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>268</v>
       </c>
@@ -5164,7 +5160,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>472</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>181</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>168</v>
@@ -5193,7 +5189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
@@ -5222,7 +5218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>540</v>
       </c>
@@ -5230,10 +5226,10 @@
         <v>647</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>541</v>
@@ -5265,7 +5261,7 @@
       <c r="U43" s="3"/>
       <c r="W43" s="3"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>544</v>
       </c>
@@ -5273,10 +5269,10 @@
         <v>648</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>541</v>
@@ -5300,7 +5296,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>543</v>
       </c>
@@ -5308,10 +5304,10 @@
         <v>651</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>541</v>
@@ -5335,18 +5331,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>542</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>541</v>
@@ -5373,7 +5369,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>475</v>
       </c>
@@ -5381,10 +5377,10 @@
         <v>643</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>476</v>
@@ -5426,18 +5422,18 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>476</v>
@@ -5482,18 +5478,18 @@
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>476</v>
@@ -5538,7 +5534,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>532</v>
       </c>
@@ -5549,13 +5545,13 @@
         <v>124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>70</v>
@@ -5573,24 +5569,24 @@
         <v>533</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>534</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>70</v>
@@ -5608,24 +5604,24 @@
         <v>536</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>535</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>70</v>
@@ -5643,24 +5639,24 @@
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>539</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>70</v>
@@ -5678,9 +5674,9 @@
         <v>538</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>612</v>
@@ -5692,10 +5688,10 @@
         <v>643</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>88</v>
@@ -5704,18 +5700,18 @@
         <v>89</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>612</v>
@@ -5724,13 +5720,13 @@
         <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>70</v>
@@ -5739,16 +5735,16 @@
         <v>65</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -5777,7 +5773,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
@@ -5800,18 +5796,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>7</v>
@@ -5835,18 +5831,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>647</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>7</v>
@@ -5870,18 +5866,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>648</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>7</v>
@@ -5896,7 +5892,7 @@
         <v>626</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>626</v>
@@ -5905,9 +5901,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>607</v>
@@ -5919,10 +5915,10 @@
         <v>651</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>7</v>
@@ -5940,7 +5936,7 @@
         <v>24</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>24</v>
@@ -5949,18 +5945,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>7</v>
@@ -5975,7 +5971,7 @@
         <v>17</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>17</v>
@@ -5984,18 +5980,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>649</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>7</v>
@@ -6010,7 +6006,7 @@
         <v>189</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>189</v>
@@ -6019,18 +6015,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>7</v>
@@ -6045,7 +6041,7 @@
         <v>28</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>28</v>
@@ -6054,18 +6050,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>7</v>
@@ -6080,7 +6076,7 @@
         <v>19</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>19</v>
@@ -6089,18 +6085,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>7</v>
@@ -6124,7 +6120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>529</v>
       </c>
@@ -6156,7 +6152,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>531</v>
       </c>
@@ -6173,7 +6169,7 @@
         <v>31</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>88</v>
@@ -6191,9 +6187,9 @@
         <v>518</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>612</v>
@@ -6205,7 +6201,7 @@
         <v>651</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>430</v>
@@ -6226,7 +6222,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>620</v>
       </c>
@@ -6258,9 +6254,9 @@
         <v>619</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>612</v>
@@ -6272,7 +6268,7 @@
         <v>647</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>622</v>
@@ -6293,7 +6289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>621</v>
       </c>
@@ -6304,7 +6300,7 @@
         <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>6</v>
@@ -6328,18 +6324,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>644</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>88</v>
@@ -6357,18 +6353,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>88</v>
@@ -6386,18 +6382,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>88</v>
@@ -6415,18 +6411,18 @@
         <v>189</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>88</v>
@@ -6444,18 +6440,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>88</v>
@@ -6473,18 +6469,18 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>88</v>
@@ -6493,27 +6489,27 @@
         <v>65</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>88</v>
@@ -6531,9 +6527,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>612</v>
@@ -6545,7 +6541,7 @@
         <v>648</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>624</v>
@@ -6566,7 +6562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>623</v>
       </c>
@@ -6577,7 +6573,7 @@
         <v>272</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -6601,18 +6597,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>488</v>
@@ -6624,9 +6620,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>609</v>
@@ -6635,10 +6631,10 @@
         <v>646</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>488</v>
@@ -6650,18 +6646,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>488</v>
@@ -6673,18 +6669,18 @@
         <v>427</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>488</v>
@@ -6696,18 +6692,18 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>488</v>
@@ -6719,18 +6715,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>488</v>
@@ -6742,18 +6738,18 @@
         <v>428</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>608</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>60</v>
@@ -6768,15 +6764,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>62</v>
@@ -6791,15 +6787,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>56</v>
@@ -6814,18 +6810,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>488</v>
@@ -6837,15 +6833,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>51</v>
@@ -6860,21 +6856,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>488</v>
@@ -6886,18 +6882,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>488</v>
@@ -6909,7 +6905,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>432</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>437</v>
       </c>
@@ -6973,7 +6969,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>441</v>
       </c>
@@ -7005,7 +7001,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>407</v>
       </c>
@@ -7046,7 +7042,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>409</v>
       </c>
@@ -7081,7 +7077,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>380</v>
       </c>
@@ -7116,7 +7112,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>412</v>
       </c>
@@ -7151,7 +7147,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>378</v>
       </c>
@@ -7186,7 +7182,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -7221,7 +7217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>86</v>
       </c>
@@ -7254,12 +7250,12 @@
       </c>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>284</v>
@@ -7271,7 +7267,7 @@
         <v>6</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>88</v>
@@ -7287,7 +7283,7 @@
       </c>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>465</v>
       </c>
@@ -7319,7 +7315,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>468</v>
       </c>
@@ -7351,9 +7347,9 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>271</v>
@@ -7361,11 +7357,14 @@
       <c r="C108" s="2" t="s">
         <v>565</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>686</v>
+      </c>
       <c r="E108" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>678</v>
+        <v>1119</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>88</v>
@@ -7374,18 +7373,18 @@
         <v>89</v>
       </c>
       <c r="M108" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="N108" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>294</v>
@@ -7393,11 +7392,14 @@
       <c r="C109" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="E109" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>662</v>
+        <v>1118</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>88</v>
@@ -7406,16 +7408,16 @@
         <v>89</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>106</v>
       </c>
@@ -7447,7 +7449,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>63</v>
       </c>
@@ -7458,7 +7460,7 @@
         <v>132</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>6</v>
@@ -7479,24 +7481,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>70</v>
@@ -7505,16 +7507,16 @@
         <v>65</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>598</v>
       </c>
@@ -7531,7 +7533,7 @@
         <v>6</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>70</v>
@@ -7549,12 +7551,12 @@
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>132</v>
@@ -7566,7 +7568,7 @@
         <v>6</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>70</v>
@@ -7575,21 +7577,21 @@
         <v>65</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>140</v>
@@ -7601,7 +7603,7 @@
         <v>6</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>70</v>
@@ -7610,21 +7612,21 @@
         <v>65</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>128</v>
@@ -7633,7 +7635,7 @@
         <v>6</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>70</v>
@@ -7642,21 +7644,21 @@
         <v>65</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>136</v>
@@ -7665,7 +7667,7 @@
         <v>6</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>70</v>
@@ -7674,21 +7676,21 @@
         <v>65</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>272</v>
@@ -7713,12 +7715,12 @@
       </c>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>587</v>
@@ -7743,12 +7745,12 @@
       </c>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>566</v>
@@ -7773,7 +7775,7 @@
       </c>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>66</v>
       </c>
@@ -7802,7 +7804,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>596</v>
       </c>
@@ -7834,7 +7836,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>599</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>600</v>
       </c>
@@ -7898,9 +7900,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>271</v>
@@ -7912,7 +7914,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>70</v>
@@ -7921,18 +7923,18 @@
         <v>65</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>271</v>
@@ -7944,7 +7946,7 @@
         <v>6</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>70</v>
@@ -7962,9 +7964,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>294</v>
@@ -7976,7 +7978,7 @@
         <v>6</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>70</v>
@@ -7985,16 +7987,16 @@
         <v>65</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>379</v>
       </c>
@@ -8020,6 +8022,12 @@
       <c r="N128" s="3" t="s">
         <v>383</v>
       </c>
+      <c r="R128" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="S128" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="T128" s="9" t="s">
         <v>384</v>
       </c>
@@ -8027,7 +8035,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>377</v>
       </c>
@@ -8053,6 +8061,12 @@
       <c r="N129" s="3" t="s">
         <v>369</v>
       </c>
+      <c r="R129" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="S129" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="T129" s="9" t="s">
         <v>370</v>
       </c>
@@ -8060,7 +8074,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8093,7 +8107,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>151</v>
       </c>
@@ -8127,7 +8141,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>154</v>
       </c>
@@ -8161,7 +8175,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>157</v>
       </c>
@@ -8191,9 +8205,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>614</v>
@@ -8202,13 +8216,13 @@
         <v>143</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>37</v>
@@ -8217,16 +8231,16 @@
         <v>37</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N134" s="3"/>
       <c r="O134" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>614</v>
@@ -8235,13 +8249,13 @@
         <v>272</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>37</v>
@@ -8250,14 +8264,14 @@
         <v>37</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N135" s="3"/>
       <c r="O135" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>625</v>
       </c>
@@ -8268,13 +8282,13 @@
         <v>284</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>226</v>
@@ -8292,7 +8306,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>422</v>
       </c>
@@ -8319,7 +8333,7 @@
       </c>
       <c r="N137" s="3"/>
     </row>
-    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>423</v>
       </c>
@@ -8343,7 +8357,7 @@
       </c>
       <c r="N138" s="3"/>
     </row>
-    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>426</v>
       </c>
@@ -8366,7 +8380,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>178</v>
       </c>
@@ -8401,7 +8415,7 @@
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
     </row>
-    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>163</v>
       </c>
@@ -8433,9 +8447,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>637</v>
@@ -8450,7 +8464,7 @@
         <v>15</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>226</v>
@@ -8468,7 +8482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>640</v>
       </c>
@@ -8485,7 +8499,7 @@
         <v>15</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>226</v>
@@ -8500,7 +8514,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>176</v>
       </c>
@@ -8532,7 +8546,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>506</v>
       </c>
@@ -8555,7 +8569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>243</v>
       </c>
@@ -8587,7 +8601,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>242</v>
       </c>
@@ -8595,7 +8609,7 @@
         <v>181</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D147" s="2">
         <v>2</v>
@@ -8619,7 +8633,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>263</v>
       </c>
@@ -8654,7 +8668,7 @@
       <c r="T148" s="9"/>
       <c r="U148" s="9"/>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>252</v>
       </c>
@@ -8689,7 +8703,7 @@
       <c r="T149" s="9"/>
       <c r="U149" s="9"/>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>237</v>
       </c>
@@ -8724,7 +8738,7 @@
       <c r="T150" s="9"/>
       <c r="U150" s="9"/>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>244</v>
       </c>
@@ -8756,9 +8770,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>637</v>
@@ -8767,13 +8781,13 @@
         <v>136</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>88</v>
@@ -8782,16 +8796,16 @@
         <v>89</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>552</v>
       </c>
@@ -8802,7 +8816,7 @@
         <v>143</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>18</v>
@@ -8826,7 +8840,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>553</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>272</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>18</v>
@@ -8861,7 +8875,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>558</v>
       </c>
@@ -8872,7 +8886,7 @@
         <v>284</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>18</v>
@@ -8896,7 +8910,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>562</v>
       </c>
@@ -8907,7 +8921,7 @@
         <v>452</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>18</v>
@@ -8931,7 +8945,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>559</v>
       </c>
@@ -8942,7 +8956,7 @@
         <v>565</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>18</v>
@@ -8966,7 +8980,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>567</v>
       </c>
@@ -8977,7 +8991,7 @@
         <v>566</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>18</v>
@@ -9001,24 +9015,24 @@
         <v>569</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>70</v>
@@ -9027,16 +9041,16 @@
         <v>65</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="O159" s="3" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>251</v>
       </c>
@@ -9072,7 +9086,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>236</v>
       </c>
@@ -9105,9 +9119,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>614</v>
@@ -9116,13 +9130,13 @@
         <v>284</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>37</v>
@@ -9131,14 +9145,14 @@
         <v>37</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="N162" s="3"/>
       <c r="O162" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>145</v>
       </c>
@@ -9171,9 +9185,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>607</v>
@@ -9188,7 +9202,7 @@
         <v>18</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>226</v>
@@ -9206,9 +9220,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>637</v>
@@ -9223,7 +9237,7 @@
         <v>18</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>226</v>
@@ -9241,7 +9255,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>642</v>
       </c>
@@ -9252,13 +9266,13 @@
         <v>124</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>226</v>
@@ -9273,7 +9287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>547</v>
       </c>
@@ -9299,7 +9313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>548</v>
       </c>
@@ -9322,9 +9336,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>637</v>
@@ -9336,7 +9350,7 @@
         <v>22</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>226</v>
@@ -9345,18 +9359,18 @@
         <v>50</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>612</v>
@@ -9365,13 +9379,13 @@
         <v>284</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>88</v>
@@ -9389,7 +9403,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>245</v>
       </c>
@@ -9412,9 +9426,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>612</v>
@@ -9426,7 +9440,7 @@
         <v>649</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>627</v>
@@ -9447,9 +9461,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>451</v>
@@ -9458,13 +9472,13 @@
         <v>197</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>88</v>
@@ -9473,21 +9487,21 @@
         <v>89</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>591</v>
@@ -9514,7 +9528,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>73</v>
       </c>
@@ -9546,7 +9560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>77</v>
       </c>
@@ -9578,7 +9592,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>80</v>
       </c>
@@ -9592,7 +9606,7 @@
         <v>31</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>70</v>
@@ -9610,7 +9624,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>524</v>
       </c>
@@ -9642,7 +9656,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>633</v>
       </c>
@@ -9653,10 +9667,10 @@
         <v>565</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>634</v>
@@ -9677,7 +9691,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>510</v>
       </c>
@@ -9709,7 +9723,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>512</v>
       </c>
@@ -9741,7 +9755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>513</v>
       </c>
@@ -9776,7 +9790,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>515</v>
       </c>
@@ -9811,7 +9825,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>516</v>
       </c>
@@ -9846,7 +9860,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>79</v>
       </c>
@@ -9878,7 +9892,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>636</v>
       </c>
@@ -9907,7 +9921,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>71</v>
       </c>
@@ -9927,7 +9941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>517</v>
       </c>
@@ -9938,13 +9952,13 @@
         <v>272</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>70</v>
@@ -9962,7 +9976,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>657</v>
       </c>
@@ -9973,7 +9987,7 @@
         <v>197</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>650</v>
@@ -9997,7 +10011,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>398</v>
       </c>
@@ -10005,7 +10019,7 @@
         <v>192</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D190" s="2">
         <v>2</v>
@@ -10031,7 +10045,7 @@
       <c r="R190" s="10"/>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>404</v>
       </c>
@@ -10039,7 +10053,7 @@
         <v>192</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D191" s="2">
         <v>2</v>
@@ -10065,7 +10079,7 @@
       <c r="R191" s="10"/>
       <c r="S191" s="10"/>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>401</v>
       </c>
@@ -10073,7 +10087,7 @@
         <v>435</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D192" s="2">
         <v>2</v>
@@ -10099,7 +10113,7 @@
       <c r="R192" s="10"/>
       <c r="S192" s="10"/>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>216</v>
       </c>
@@ -10137,9 +10151,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D194" s="2">
         <v>2</v>
@@ -10169,7 +10183,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>390</v>
       </c>
@@ -10203,7 +10217,7 @@
       <c r="R195" s="10"/>
       <c r="S195" s="10"/>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>397</v>
       </c>
@@ -10237,9 +10251,9 @@
       <c r="R196" s="10"/>
       <c r="S196" s="10"/>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>271</v>
@@ -10248,13 +10262,13 @@
         <v>566</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>70</v>
@@ -10263,16 +10277,16 @@
         <v>65</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>572</v>
       </c>
@@ -10283,13 +10297,13 @@
         <v>452</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>70</v>
@@ -10307,7 +10321,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>579</v>
       </c>
@@ -10318,13 +10332,13 @@
         <v>587</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>70</v>
@@ -10342,7 +10356,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>578</v>
       </c>
@@ -10353,13 +10367,13 @@
         <v>584</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>70</v>
@@ -10377,7 +10391,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>509</v>
       </c>
@@ -10388,7 +10402,7 @@
         <v>591</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>10</v>
@@ -10412,7 +10426,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>580</v>
       </c>
@@ -10423,13 +10437,13 @@
         <v>582</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>70</v>
@@ -10447,7 +10461,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>581</v>
       </c>
@@ -10458,13 +10472,13 @@
         <v>591</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>70</v>
@@ -10482,7 +10496,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>574</v>
       </c>
@@ -10493,7 +10507,7 @@
         <v>565</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>10</v>
@@ -10517,7 +10531,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>577</v>
       </c>
@@ -10528,7 +10542,7 @@
         <v>582</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>10</v>
@@ -10552,7 +10566,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>592</v>
       </c>
@@ -10563,13 +10577,13 @@
         <v>566</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>70</v>
@@ -10587,7 +10601,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>570</v>
       </c>
@@ -10598,13 +10612,13 @@
         <v>197</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>70</v>
@@ -10622,7 +10636,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>122</v>
       </c>
@@ -10654,7 +10668,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>127</v>
       </c>
@@ -10686,7 +10700,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>100</v>
       </c>
@@ -10715,7 +10729,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>429</v>
       </c>
@@ -10739,12 +10753,12 @@
       </c>
       <c r="N211" s="3"/>
     </row>
-    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
@@ -10763,7 +10777,7 @@
       </c>
       <c r="N212" s="3"/>
     </row>
-    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>39</v>
       </c>
@@ -10795,7 +10809,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>161</v>
       </c>
@@ -10827,9 +10841,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>637</v>
@@ -10844,7 +10858,7 @@
         <v>27</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G215" s="2" t="s">
         <v>226</v>
@@ -10862,7 +10876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>35</v>
       </c>
@@ -10894,7 +10908,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>49</v>
       </c>
@@ -10917,9 +10931,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>289</v>
@@ -10928,13 +10942,13 @@
         <v>140</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G218" s="2" t="s">
         <v>88</v>
@@ -10943,15 +10957,15 @@
         <v>89</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>637</v>
@@ -10960,13 +10974,13 @@
         <v>132</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G219" s="2" t="s">
         <v>88</v>
@@ -10975,16 +10989,16 @@
         <v>89</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>101</v>
       </c>
@@ -11013,9 +11027,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>612</v>
@@ -11048,9 +11062,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>612</v>
@@ -11059,7 +11073,7 @@
         <v>582</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>616</v>
@@ -11083,9 +11097,9 @@
         <v>632</v>
       </c>
     </row>
-    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>612</v>
@@ -11094,13 +11108,13 @@
         <v>591</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G223" s="2" t="s">
         <v>70</v>
@@ -11109,18 +11123,18 @@
         <v>65</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>273</v>
@@ -11153,9 +11167,9 @@
         <v>661</v>
       </c>
     </row>
-    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>192</v>
@@ -11164,13 +11178,13 @@
         <v>591</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G225" s="2" t="s">
         <v>70</v>
@@ -11179,18 +11193,18 @@
         <v>65</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="O225" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>192</v>
@@ -11205,7 +11219,7 @@
         <v>616</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G226" s="2" t="s">
         <v>70</v>
@@ -11214,18 +11228,18 @@
         <v>65</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O226" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>294</v>
@@ -11234,13 +11248,13 @@
         <v>136</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G227" s="2" t="s">
         <v>70</v>
@@ -11249,18 +11263,18 @@
         <v>65</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>294</v>
@@ -11269,13 +11283,13 @@
         <v>140</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G228" s="2" t="s">
         <v>70</v>
@@ -11284,18 +11298,18 @@
         <v>65</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O228" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>294</v>
@@ -11304,13 +11318,13 @@
         <v>143</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G229" s="2" t="s">
         <v>70</v>
@@ -11319,18 +11333,18 @@
         <v>65</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O229" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>451</v>
@@ -11339,13 +11353,13 @@
         <v>124</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G230" s="2" t="s">
         <v>70</v>
@@ -11354,18 +11368,18 @@
         <v>65</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="O230" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>451</v>
@@ -11374,13 +11388,13 @@
         <v>128</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G231" s="2" t="s">
         <v>70</v>
@@ -11389,18 +11403,18 @@
         <v>65</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="O231" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>451</v>
@@ -11409,13 +11423,13 @@
         <v>132</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G232" s="2" t="s">
         <v>70</v>
@@ -11424,18 +11438,18 @@
         <v>65</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="O232" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>451</v>
@@ -11444,13 +11458,13 @@
         <v>136</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G233" s="2" t="s">
         <v>70</v>
@@ -11459,18 +11473,18 @@
         <v>65</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="O233" s="2" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>451</v>
@@ -11479,13 +11493,13 @@
         <v>140</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>70</v>
@@ -11494,18 +11508,18 @@
         <v>65</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="O234" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>451</v>
@@ -11520,7 +11534,7 @@
         <v>616</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G235" s="2" t="s">
         <v>70</v>
@@ -11529,18 +11543,18 @@
         <v>65</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="O235" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>451</v>
@@ -11549,13 +11563,13 @@
         <v>272</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G236" s="2" t="s">
         <v>70</v>
@@ -11564,18 +11578,18 @@
         <v>65</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="O236" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>451</v>
@@ -11584,13 +11598,13 @@
         <v>284</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G237" s="2" t="s">
         <v>70</v>
@@ -11599,18 +11613,18 @@
         <v>65</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="O237" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>451</v>
@@ -11619,13 +11633,13 @@
         <v>565</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>70</v>
@@ -11634,18 +11648,18 @@
         <v>65</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="O238" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>607</v>
@@ -11654,13 +11668,13 @@
         <v>140</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>70</v>
@@ -11669,18 +11683,18 @@
         <v>65</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="O239" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>607</v>
@@ -11689,13 +11703,13 @@
         <v>143</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G240" s="2" t="s">
         <v>70</v>
@@ -11704,18 +11718,18 @@
         <v>65</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="O240" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>607</v>
@@ -11724,13 +11738,13 @@
         <v>272</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G241" s="2" t="s">
         <v>70</v>
@@ -11739,18 +11753,18 @@
         <v>65</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="O241" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>607</v>
@@ -11759,13 +11773,13 @@
         <v>284</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>70</v>
@@ -11774,18 +11788,18 @@
         <v>65</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="O242" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>196</v>
@@ -11800,7 +11814,7 @@
         <v>616</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>70</v>
@@ -11809,18 +11823,18 @@
         <v>65</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="O243" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>196</v>
@@ -11829,13 +11843,13 @@
         <v>591</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>70</v>
@@ -11844,18 +11858,18 @@
         <v>65</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O244" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>637</v>
@@ -11864,13 +11878,13 @@
         <v>582</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>70</v>
@@ -11879,33 +11893,33 @@
         <v>65</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="O245" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>70</v>
@@ -11914,33 +11928,33 @@
         <v>65</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="N246" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="O246" s="3" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>70</v>
@@ -11949,33 +11963,33 @@
         <v>65</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N247" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="O247" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G248" s="2" t="s">
         <v>70</v>
@@ -11984,16 +11998,16 @@
         <v>65</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N248" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="O248" s="3" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>131</v>
       </c>
@@ -12025,7 +12039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>135</v>
       </c>
@@ -12055,7 +12069,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>139</v>
       </c>
@@ -12066,7 +12080,7 @@
         <v>140</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>13</v>
@@ -12088,7 +12102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>142</v>
       </c>
@@ -12121,9 +12135,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>123</v>
@@ -12132,13 +12146,13 @@
         <v>272</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G253" s="2" t="s">
         <v>37</v>
@@ -12147,16 +12161,16 @@
         <v>50</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="N253" s="3"/>
       <c r="O253" s="3" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>612</v>
@@ -12165,13 +12179,13 @@
         <v>566</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>616</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G254" s="2" t="s">
         <v>70</v>
@@ -12180,18 +12194,18 @@
         <v>65</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="O254" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>607</v>
@@ -12200,10 +12214,10 @@
         <v>124</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G255" s="2" t="s">
         <v>70</v>
@@ -12212,18 +12226,18 @@
         <v>65</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="O255" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>273</v>
@@ -12235,10 +12249,10 @@
         <v>651</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>70</v>
@@ -12247,18 +12261,18 @@
         <v>65</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="O256" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>289</v>
@@ -12267,13 +12281,13 @@
         <v>128</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G257" s="2" t="s">
         <v>70</v>
@@ -12282,18 +12296,18 @@
         <v>65</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="O257" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>273</v>
@@ -12302,13 +12316,13 @@
         <v>128</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G258" s="2" t="s">
         <v>70</v>
@@ -12317,18 +12331,18 @@
         <v>65</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>289</v>
@@ -12337,13 +12351,13 @@
         <v>284</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G259" s="2" t="s">
         <v>70</v>
@@ -12352,30 +12366,30 @@
         <v>65</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="O259" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G260" s="2" t="s">
         <v>70</v>
@@ -12384,30 +12398,30 @@
         <v>65</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>452</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G261" s="2" t="s">
         <v>70</v>
@@ -12416,30 +12430,30 @@
         <v>65</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>565</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>70</v>
@@ -12448,30 +12462,30 @@
         <v>65</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G263" s="2" t="s">
         <v>70</v>
@@ -12480,30 +12494,30 @@
         <v>65</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>584</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G264" s="2" t="s">
         <v>70</v>
@@ -12512,30 +12526,30 @@
         <v>65</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>587</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G265" s="2" t="s">
         <v>70</v>
@@ -12553,21 +12567,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>582</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G266" s="2" t="s">
         <v>70</v>
@@ -12576,18 +12590,18 @@
         <v>65</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="N266" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>196</v>
@@ -12596,10 +12610,10 @@
         <v>587</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>70</v>
@@ -12608,18 +12622,18 @@
         <v>65</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>637</v>
@@ -12628,10 +12642,10 @@
         <v>565</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G268" s="2" t="s">
         <v>70</v>
@@ -12640,16 +12654,16 @@
         <v>65</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="N268" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="O268" s="3" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>191</v>
       </c>
@@ -12660,7 +12674,7 @@
         <v>182</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>13</v>
@@ -12681,7 +12695,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>199</v>
       </c>
@@ -12713,7 +12727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>202</v>
       </c>
@@ -12745,7 +12759,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>205</v>
       </c>
@@ -12777,7 +12791,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>207</v>
       </c>
@@ -12809,7 +12823,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>208</v>
       </c>
@@ -12841,9 +12855,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>123</v>
@@ -12852,13 +12866,13 @@
         <v>284</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>37</v>
@@ -12867,16 +12881,16 @@
         <v>38</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N275" s="3"/>
       <c r="O275" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>637</v>
@@ -12885,13 +12899,13 @@
         <v>587</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E276" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>226</v>
@@ -12909,7 +12923,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>641</v>
       </c>
@@ -12920,13 +12934,13 @@
         <v>128</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>226</v>
@@ -12941,7 +12955,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>195</v>
       </c>
@@ -12973,12 +12987,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>190</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E279" s="2" t="s">
         <v>13</v>
@@ -12996,7 +13010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>6</v>
       </c>
@@ -13010,7 +13024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>10</v>
       </c>
@@ -13024,7 +13038,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>91</v>
       </c>
@@ -13038,7 +13052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>13</v>
       </c>
@@ -13052,7 +13066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>15</v>
       </c>
@@ -13066,7 +13080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>18</v>
       </c>
@@ -13080,7 +13094,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>27</v>
       </c>
@@ -13094,7 +13108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>26</v>
       </c>
@@ -13108,26 +13122,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G288" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>169</v>
@@ -13136,7 +13150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>22</v>
       </c>
@@ -13150,7 +13164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>30</v>
       </c>
@@ -13164,7 +13178,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>31</v>
       </c>
@@ -13178,12 +13192,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>650</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>652</v>
@@ -13192,49 +13206,49 @@
         <v>54</v>
       </c>
     </row>
-    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>649</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F295" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>644</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G296" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>223</v>
       </c>
@@ -13248,7 +13262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>616</v>
       </c>
@@ -13262,35 +13276,35 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G299" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="G299" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>995</v>
-      </c>
       <c r="C300" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>643</v>
@@ -13299,39 +13313,39 @@
         <v>223</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H300" s="2" t="s">
         <v>50</v>
       </c>
       <c r="M300" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.35">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H301" s="2" t="s">
         <v>50</v>
@@ -13340,154 +13354,154 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H302" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H303" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H304" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H305" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H306" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E307" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G307" s="2" t="s">
         <v>70</v>
@@ -13496,33 +13510,33 @@
         <v>50</v>
       </c>
       <c r="M307" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="N307" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="O307" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>128</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G308" s="2" t="s">
         <v>70</v>
@@ -13531,33 +13545,33 @@
         <v>50</v>
       </c>
       <c r="M308" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="N308" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="G309" s="2" t="s">
         <v>70</v>
@@ -13566,27 +13580,27 @@
         <v>50</v>
       </c>
       <c r="M309" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="N309" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="O309" s="2" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>650</v>
@@ -13601,33 +13615,33 @@
         <v>50</v>
       </c>
       <c r="M310" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="N310" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="O310" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G311" s="2" t="s">
         <v>70</v>
@@ -13636,33 +13650,33 @@
         <v>50</v>
       </c>
       <c r="M311" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="N311" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="O311" s="2" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G312" s="2" t="s">
         <v>70</v>
@@ -13671,33 +13685,33 @@
         <v>50</v>
       </c>
       <c r="M312" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="N312" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="O312" s="2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G313" s="2" t="s">
         <v>95</v>
@@ -13706,33 +13720,33 @@
         <v>50</v>
       </c>
       <c r="M313" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="N313" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="O313" s="2" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G314" s="2" t="s">
         <v>70</v>
@@ -13741,21 +13755,21 @@
         <v>50</v>
       </c>
       <c r="M314" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="N314" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="O314" s="2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>452</v>
@@ -13767,7 +13781,7 @@
         <v>650</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G315" s="2" t="s">
         <v>70</v>
@@ -13776,21 +13790,21 @@
         <v>50</v>
       </c>
       <c r="M315" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N315" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="O315" s="2" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>565</v>
@@ -13802,7 +13816,7 @@
         <v>650</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G316" s="2" t="s">
         <v>70</v>
@@ -13811,21 +13825,21 @@
         <v>50</v>
       </c>
       <c r="M316" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N316" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="O316" s="2" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>197</v>
@@ -13837,7 +13851,7 @@
         <v>650</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G317" s="2" t="s">
         <v>70</v>
@@ -13846,33 +13860,33 @@
         <v>50</v>
       </c>
       <c r="M317" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="N317" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="O317" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>584</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G318" s="2" t="s">
         <v>70</v>
@@ -13881,21 +13895,21 @@
         <v>50</v>
       </c>
       <c r="M318" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="N318" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="O318" s="2" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>587</v>
@@ -13907,7 +13921,7 @@
         <v>650</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G319" s="2" t="s">
         <v>70</v>
@@ -13916,33 +13930,33 @@
         <v>50</v>
       </c>
       <c r="M319" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N319" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="O319" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>582</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G320" s="2" t="s">
         <v>70</v>
@@ -13951,33 +13965,33 @@
         <v>50</v>
       </c>
       <c r="M320" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="N320" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="O320" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>591</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G321" s="2" t="s">
         <v>70</v>
@@ -13986,33 +14000,33 @@
         <v>50</v>
       </c>
       <c r="M321" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="N321" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="O321" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>566</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G322" s="2" t="s">
         <v>70</v>
@@ -14021,33 +14035,33 @@
         <v>50</v>
       </c>
       <c r="M322" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="N322" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="O322" s="2" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G323" s="2" t="s">
         <v>70</v>
@@ -14056,24 +14070,24 @@
         <v>50</v>
       </c>
       <c r="M323" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N323" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="O323" s="2" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>644</v>
@@ -14082,7 +14096,7 @@
         <v>650</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G324" s="2" t="s">
         <v>70</v>
@@ -14091,33 +14105,33 @@
         <v>50</v>
       </c>
       <c r="M324" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="N324" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="O324" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G325" s="2" t="s">
         <v>70</v>
@@ -14126,33 +14140,33 @@
         <v>50</v>
       </c>
       <c r="M325" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="N325" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="O325" s="2" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G326" s="2" t="s">
         <v>70</v>
@@ -14161,33 +14175,33 @@
         <v>50</v>
       </c>
       <c r="M326" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="N326" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="O326" s="2" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G327" s="2" t="s">
         <v>70</v>
@@ -14196,33 +14210,33 @@
         <v>50</v>
       </c>
       <c r="M327" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="N327" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="O327" s="2" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G328" s="2" t="s">
         <v>70</v>
@@ -14231,33 +14245,33 @@
         <v>50</v>
       </c>
       <c r="M328" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N328" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="O328" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G329" s="2" t="s">
         <v>70</v>
@@ -14266,33 +14280,33 @@
         <v>50</v>
       </c>
       <c r="M329" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="N329" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="O329" s="2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>650</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G330" s="2" t="s">
         <v>70</v>
@@ -14301,30 +14315,30 @@
         <v>50</v>
       </c>
       <c r="M330" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N330" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="O330" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="F331" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>1118</v>
-      </c>
       <c r="G331" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>50</v>
@@ -14334,8 +14348,12 @@
   <autoFilter ref="A1:X331" xr:uid="{A15B7B7E-755C-417B-B4FF-FE102F994437}">
     <filterColumn colId="4">
       <filters>
-        <filter val="ALARM"/>
-        <filter val="COOLING"/>
+        <filter val="LIVING"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Lights"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14354,21 +14372,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CDA106D8BFA6A3448AF01A9E59A02307" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="41acd38b5cd87acca3fd24673bdd6ef9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="01b83f19-e56e-4988-93d1-7b0a4958434f" xmlns:ns4="1db54fd2-a786-48ba-90cf-28eba453f1a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f3b3648522d44ce4d165256d0acdd1f" ns3:_="" ns4:_="">
     <xsd:import namespace="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
@@ -14585,32 +14588,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29000F54-4A4E-4C81-8FC0-FDC6AD6E5F70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F08192-1643-4335-A566-0990DA373B50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1db54fd2-a786-48ba-90cf-28eba453f1a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1FBBF3D-C8CF-457F-9DCD-B2C62D24C26F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14627,4 +14620,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29000F54-4A4E-4C81-8FC0-FDC6AD6E5F70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F08192-1643-4335-A566-0990DA373B50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1db54fd2-a786-48ba-90cf-28eba453f1a4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/load-data/script/BarniKNX.xlsx
+++ b/load-data/script/BarniKNX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3079a5a9a119bbd6/dockerapps/barni/load-data/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="13_ncr:1_{90D98A33-156D-4F98-B6E0-7BD6D06530F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{712D2AD7-B712-42C1-864F-BDE7A8211CEA}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{90D98A33-156D-4F98-B6E0-7BD6D06530F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47906E9A-B4B7-41E9-9E10-2C3C7743EF2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E641F112-E48A-446C-91E5-B9D6CEB5640F}"/>
   </bookViews>
@@ -3481,6 +3481,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3784,9 +3788,9 @@
   <dimension ref="A1:X331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6905,7 +6909,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>432</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>437</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>441</v>
       </c>
@@ -7001,7 +7005,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>407</v>
       </c>
@@ -7042,7 +7046,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>409</v>
       </c>
@@ -7077,7 +7081,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>380</v>
       </c>
@@ -7112,7 +7116,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>412</v>
       </c>
@@ -7147,7 +7151,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>378</v>
       </c>
@@ -7182,7 +7186,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>108</v>
       </c>
@@ -7217,7 +7221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>86</v>
       </c>
@@ -7250,7 +7254,7 @@
       </c>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>463</v>
       </c>
@@ -7283,7 +7287,7 @@
       </c>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>465</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>468</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>675</v>
       </c>
@@ -7382,7 +7386,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>664</v>
       </c>
@@ -7996,7 +8000,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>379</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>377</v>
       </c>
@@ -14353,7 +14357,7 @@
     </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <filter val="Lights"/>
+        <filter val="Blinds"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -14372,6 +14376,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CDA106D8BFA6A3448AF01A9E59A02307" ma:contentTypeVersion="12" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="41acd38b5cd87acca3fd24673bdd6ef9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="01b83f19-e56e-4988-93d1-7b0a4958434f" xmlns:ns4="1db54fd2-a786-48ba-90cf-28eba453f1a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1f3b3648522d44ce4d165256d0acdd1f" ns3:_="" ns4:_="">
     <xsd:import namespace="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
@@ -14588,22 +14607,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F08192-1643-4335-A566-0990DA373B50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1db54fd2-a786-48ba-90cf-28eba453f1a4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29000F54-4A4E-4C81-8FC0-FDC6AD6E5F70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1FBBF3D-C8CF-457F-9DCD-B2C62D24C26F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14620,29 +14649,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29000F54-4A4E-4C81-8FC0-FDC6AD6E5F70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F08192-1643-4335-A566-0990DA373B50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01b83f19-e56e-4988-93d1-7b0a4958434f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1db54fd2-a786-48ba-90cf-28eba453f1a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>